--- a/clickbait/textclf/results/textclf_results.xlsx
+++ b/clickbait/textclf/results/textclf_results.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/clickbait/textclf/results/textclf_results.xlsx
+++ b/clickbait/textclf/results/textclf_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>bert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poolLSTM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +89,24 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,8 +125,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -116,8 +140,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -392,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,20 +492,20 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
-        <v>0.857004362578768</v>
+        <v>0.78865729520116301</v>
       </c>
       <c r="D3" s="3">
-        <v>0.82537131605783598</v>
+        <v>0.63017679213629196</v>
       </c>
       <c r="E3" s="3">
-        <v>0.84143378403096503</v>
+        <v>0.82774196935726196</v>
       </c>
       <c r="F3" s="3">
-        <v>0.81496577029649497</v>
+        <v>0.64951156883382799</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -495,20 +521,20 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <v>0.92049999999999998</v>
+        <v>0.857004362578768</v>
       </c>
       <c r="D4" s="3">
-        <v>0.91449999999999998</v>
+        <v>0.82537131605783598</v>
       </c>
       <c r="E4" s="3">
-        <v>0.90080000000000005</v>
+        <v>0.84143378403096503</v>
       </c>
       <c r="F4" s="3">
-        <v>0.93130000000000002</v>
+        <v>0.81496577029649497</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -523,12 +549,22 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="3">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.93130000000000002</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -579,6 +615,25 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
